--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cx3cl1</t>
+  </si>
+  <si>
+    <t>Cx3cr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cx3cl1</t>
-  </si>
-  <si>
-    <t>Cx3cr1</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H2">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I2">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J2">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.05108466666666667</v>
+        <v>0.303814</v>
       </c>
       <c r="N2">
-        <v>0.153254</v>
+        <v>0.911442</v>
       </c>
       <c r="O2">
-        <v>0.0004048871544489625</v>
+        <v>0.006163693584599369</v>
       </c>
       <c r="P2">
-        <v>0.0004048871544489624</v>
+        <v>0.006163693584599369</v>
       </c>
       <c r="Q2">
-        <v>0.2789655997973333</v>
+        <v>2.277864504010666</v>
       </c>
       <c r="R2">
-        <v>2.510690398176</v>
+        <v>20.500780536096</v>
       </c>
       <c r="S2">
-        <v>0.0001810904778593453</v>
+        <v>0.003254614632488735</v>
       </c>
       <c r="T2">
-        <v>0.0001810904778593453</v>
+        <v>0.003254614632488735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,14 +590,14 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
         <v>3</v>
       </c>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H3">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I3">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J3">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.303814</v>
+        <v>27.313027</v>
       </c>
       <c r="N3">
-        <v>0.9114420000000001</v>
+        <v>81.939081</v>
       </c>
       <c r="O3">
-        <v>0.002407970805494612</v>
+        <v>0.5541190639532391</v>
       </c>
       <c r="P3">
-        <v>0.002407970805494612</v>
+        <v>0.554119063953239</v>
       </c>
       <c r="Q3">
-        <v>1.659082074272</v>
+        <v>204.7811315488587</v>
       </c>
       <c r="R3">
-        <v>14.931738668448</v>
+        <v>1843.030183939728</v>
       </c>
       <c r="S3">
-        <v>0.001076992883194419</v>
+        <v>0.2925914451992335</v>
       </c>
       <c r="T3">
-        <v>0.001076992883194419</v>
+        <v>0.2925914451992334</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H4">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I4">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J4">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>45.38881466666666</v>
+        <v>0.03735666666666667</v>
       </c>
       <c r="N4">
-        <v>136.166444</v>
+        <v>0.11207</v>
       </c>
       <c r="O4">
-        <v>0.359742936840761</v>
+        <v>0.0007578816205815086</v>
       </c>
       <c r="P4">
-        <v>0.359742936840761</v>
+        <v>0.0007578816205815086</v>
       </c>
       <c r="Q4">
-        <v>247.8614177948373</v>
+        <v>0.2800839493511111</v>
       </c>
       <c r="R4">
-        <v>2230.752760153536</v>
+        <v>2.52075554416</v>
       </c>
       <c r="S4">
-        <v>0.1608992027116276</v>
+        <v>0.0004001841717443486</v>
       </c>
       <c r="T4">
-        <v>0.1608992027116276</v>
+        <v>0.0004001841717443486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H5">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I5">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J5">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.217960333333333</v>
+        <v>3.620358333333333</v>
       </c>
       <c r="N5">
-        <v>12.653881</v>
+        <v>10.861075</v>
       </c>
       <c r="O5">
-        <v>0.03343073505961209</v>
+        <v>0.07344881879412249</v>
       </c>
       <c r="P5">
-        <v>0.03343073505961209</v>
+        <v>0.07344881879412249</v>
       </c>
       <c r="Q5">
-        <v>23.03364025036266</v>
+        <v>27.14386347995555</v>
       </c>
       <c r="R5">
-        <v>207.302762253264</v>
+        <v>244.2947713196</v>
       </c>
       <c r="S5">
-        <v>0.01495228416266649</v>
+        <v>0.03878317393707728</v>
       </c>
       <c r="T5">
-        <v>0.01495228416266649</v>
+        <v>0.03878317393707728</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H6">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I6">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J6">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>76.20846066666667</v>
+        <v>18.01634333333334</v>
       </c>
       <c r="N6">
-        <v>228.625382</v>
+        <v>54.04903</v>
       </c>
       <c r="O6">
-        <v>0.6040134701396834</v>
+        <v>0.3655105420474576</v>
       </c>
       <c r="P6">
-        <v>0.6040134701396833</v>
+        <v>0.3655105420474576</v>
       </c>
       <c r="Q6">
-        <v>416.1628200146453</v>
+        <v>135.0786631658489</v>
       </c>
       <c r="R6">
-        <v>3745.465380131808</v>
+        <v>1215.70796849264</v>
       </c>
       <c r="S6">
-        <v>0.2701520330768226</v>
+        <v>0.1930005024014942</v>
       </c>
       <c r="T6">
-        <v>0.2701520330768226</v>
+        <v>0.1930005024014942</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>15.507426</v>
       </c>
       <c r="I7">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J7">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.05108466666666667</v>
+        <v>0.303814</v>
       </c>
       <c r="N7">
-        <v>0.153254</v>
+        <v>0.911442</v>
       </c>
       <c r="O7">
-        <v>0.0004048871544489625</v>
+        <v>0.006163693584599369</v>
       </c>
       <c r="P7">
-        <v>0.0004048871544489624</v>
+        <v>0.006163693584599369</v>
       </c>
       <c r="Q7">
-        <v>0.2640638960226667</v>
+        <v>1.570457707588</v>
       </c>
       <c r="R7">
-        <v>2.376575064204</v>
+        <v>14.134119368292</v>
       </c>
       <c r="S7">
-        <v>0.0001714170390574526</v>
+        <v>0.002243871233702093</v>
       </c>
       <c r="T7">
-        <v>0.0001714170390574526</v>
+        <v>0.002243871233702093</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>15.507426</v>
       </c>
       <c r="I8">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J8">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.303814</v>
+        <v>27.313027</v>
       </c>
       <c r="N8">
-        <v>0.9114420000000001</v>
+        <v>81.939081</v>
       </c>
       <c r="O8">
-        <v>0.002407970805494612</v>
+        <v>0.5541190639532391</v>
       </c>
       <c r="P8">
-        <v>0.002407970805494612</v>
+        <v>0.554119063953239</v>
       </c>
       <c r="Q8">
-        <v>1.570457707588</v>
+        <v>141.184915012834</v>
       </c>
       <c r="R8">
-        <v>14.134119368292</v>
+        <v>1270.664235115506</v>
       </c>
       <c r="S8">
-        <v>0.001019462388665893</v>
+        <v>0.2017251199438755</v>
       </c>
       <c r="T8">
-        <v>0.001019462388665893</v>
+        <v>0.2017251199438755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -983,40 +983,40 @@
         <v>15.507426</v>
       </c>
       <c r="I9">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J9">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>45.38881466666666</v>
+        <v>0.03735666666666667</v>
       </c>
       <c r="N9">
-        <v>136.166444</v>
+        <v>0.11207</v>
       </c>
       <c r="O9">
-        <v>0.359742936840761</v>
+        <v>0.0007578816205815086</v>
       </c>
       <c r="P9">
-        <v>0.359742936840761</v>
+        <v>0.0007578816205815086</v>
       </c>
       <c r="Q9">
-        <v>234.6212282236826</v>
+        <v>0.1931019146466667</v>
       </c>
       <c r="R9">
-        <v>2111.591054013144</v>
+        <v>1.73791723182</v>
       </c>
       <c r="S9">
-        <v>0.1523043356092659</v>
+        <v>0.0002759041707108006</v>
       </c>
       <c r="T9">
-        <v>0.1523043356092659</v>
+        <v>0.0002759041707108007</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -1045,10 +1045,10 @@
         <v>15.507426</v>
       </c>
       <c r="I10">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J10">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.217960333333333</v>
+        <v>3.620358333333333</v>
       </c>
       <c r="N10">
-        <v>12.653881</v>
+        <v>10.861075</v>
       </c>
       <c r="O10">
-        <v>0.03343073505961209</v>
+        <v>0.07344881879412249</v>
       </c>
       <c r="P10">
-        <v>0.03343073505961209</v>
+        <v>0.07344881879412249</v>
       </c>
       <c r="Q10">
-        <v>21.80323591336733</v>
+        <v>18.71414631588333</v>
       </c>
       <c r="R10">
-        <v>196.229123220306</v>
+        <v>168.42731684295</v>
       </c>
       <c r="S10">
-        <v>0.01415356736923902</v>
+        <v>0.02673878728386552</v>
       </c>
       <c r="T10">
-        <v>0.01415356736923903</v>
+        <v>0.02673878728386552</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>15.507426</v>
       </c>
       <c r="I11">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J11">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.20846066666667</v>
+        <v>18.01634333333334</v>
       </c>
       <c r="N11">
-        <v>228.625382</v>
+        <v>54.04903</v>
       </c>
       <c r="O11">
-        <v>0.6040134701396834</v>
+        <v>0.3655105420474576</v>
       </c>
       <c r="P11">
-        <v>0.6040134701396833</v>
+        <v>0.3655105420474576</v>
       </c>
       <c r="Q11">
-        <v>393.9323547874147</v>
+        <v>93.12903701075334</v>
       </c>
       <c r="R11">
-        <v>3545.391193086732</v>
+        <v>838.16133309678</v>
       </c>
       <c r="S11">
-        <v>0.2557211298616612</v>
+        <v>0.1330628428649343</v>
       </c>
       <c r="T11">
-        <v>0.2557211298616612</v>
+        <v>0.1330628428649343</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.07054933333333334</v>
+        <v>1.489352666666667</v>
       </c>
       <c r="H12">
-        <v>0.211648</v>
+        <v>4.468058</v>
       </c>
       <c r="I12">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="J12">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.05108466666666667</v>
+        <v>0.303814</v>
       </c>
       <c r="N12">
-        <v>0.153254</v>
+        <v>0.911442</v>
       </c>
       <c r="O12">
-        <v>0.0004048871544489625</v>
+        <v>0.006163693584599369</v>
       </c>
       <c r="P12">
-        <v>0.0004048871544489624</v>
+        <v>0.006163693584599369</v>
       </c>
       <c r="Q12">
-        <v>0.003603989176888889</v>
+        <v>0.4524861910706667</v>
       </c>
       <c r="R12">
-        <v>0.032435902592</v>
+        <v>4.072375719636</v>
       </c>
       <c r="S12">
-        <v>2.339529041275563E-06</v>
+        <v>0.0006465126331547548</v>
       </c>
       <c r="T12">
-        <v>2.339529041275562E-06</v>
+        <v>0.0006465126331547548</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.07054933333333334</v>
+        <v>1.489352666666667</v>
       </c>
       <c r="H13">
-        <v>0.211648</v>
+        <v>4.468058</v>
       </c>
       <c r="I13">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="J13">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.303814</v>
+        <v>27.313027</v>
       </c>
       <c r="N13">
-        <v>0.9114420000000001</v>
+        <v>81.939081</v>
       </c>
       <c r="O13">
-        <v>0.002407970805494612</v>
+        <v>0.5541190639532391</v>
       </c>
       <c r="P13">
-        <v>0.002407970805494612</v>
+        <v>0.554119063953239</v>
       </c>
       <c r="Q13">
-        <v>0.02143387515733334</v>
+        <v>40.67872959718867</v>
       </c>
       <c r="R13">
-        <v>0.192904876416</v>
+        <v>366.108566374698</v>
       </c>
       <c r="S13">
-        <v>1.391379688907488E-05</v>
+        <v>0.05812180151407412</v>
       </c>
       <c r="T13">
-        <v>1.391379688907488E-05</v>
+        <v>0.05812180151407411</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.489352666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.468058</v>
+      </c>
+      <c r="I14">
+        <v>0.1048904563929223</v>
+      </c>
+      <c r="J14">
+        <v>0.1048904563929223</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.07054933333333334</v>
-      </c>
-      <c r="H14">
-        <v>0.211648</v>
-      </c>
-      <c r="I14">
-        <v>0.005778224909257943</v>
-      </c>
-      <c r="J14">
-        <v>0.005778224909257943</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>45.38881466666666</v>
+        <v>0.03735666666666667</v>
       </c>
       <c r="N14">
-        <v>136.166444</v>
+        <v>0.11207</v>
       </c>
       <c r="O14">
-        <v>0.359742936840761</v>
+        <v>0.0007578816205815086</v>
       </c>
       <c r="P14">
-        <v>0.359742936840761</v>
+        <v>0.0007578816205815086</v>
       </c>
       <c r="Q14">
-        <v>3.202150615523555</v>
+        <v>0.05563725111777779</v>
       </c>
       <c r="R14">
-        <v>28.819355539712</v>
+        <v>0.50073526006</v>
       </c>
       <c r="S14">
-        <v>0.002078675598582892</v>
+        <v>7.949454907460197E-05</v>
       </c>
       <c r="T14">
-        <v>0.002078675598582892</v>
+        <v>7.949454907460197E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.07054933333333334</v>
+        <v>1.489352666666667</v>
       </c>
       <c r="H15">
-        <v>0.211648</v>
+        <v>4.468058</v>
       </c>
       <c r="I15">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="J15">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.217960333333333</v>
+        <v>3.620358333333333</v>
       </c>
       <c r="N15">
-        <v>12.653881</v>
+        <v>10.861075</v>
       </c>
       <c r="O15">
-        <v>0.03343073505961209</v>
+        <v>0.07344881879412249</v>
       </c>
       <c r="P15">
-        <v>0.03343073505961209</v>
+        <v>0.07344881879412249</v>
       </c>
       <c r="Q15">
-        <v>0.2975742895431111</v>
+        <v>5.391990338038889</v>
       </c>
       <c r="R15">
-        <v>2.678168605888</v>
+        <v>48.52791304235</v>
       </c>
       <c r="S15">
-        <v>0.0001931703060562534</v>
+        <v>0.007704080124836554</v>
       </c>
       <c r="T15">
-        <v>0.0001931703060562534</v>
+        <v>0.007704080124836554</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.07054933333333334</v>
+        <v>1.489352666666667</v>
       </c>
       <c r="H16">
-        <v>0.211648</v>
+        <v>4.468058</v>
       </c>
       <c r="I16">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="J16">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>76.20846066666667</v>
+        <v>18.01634333333334</v>
       </c>
       <c r="N16">
-        <v>228.625382</v>
+        <v>54.04903</v>
       </c>
       <c r="O16">
-        <v>0.6040134701396834</v>
+        <v>0.3655105420474576</v>
       </c>
       <c r="P16">
-        <v>0.6040134701396833</v>
+        <v>0.3655105420474576</v>
       </c>
       <c r="Q16">
-        <v>5.376456094392889</v>
+        <v>26.83268898708223</v>
       </c>
       <c r="R16">
-        <v>48.388104849536</v>
+        <v>241.49420088374</v>
       </c>
       <c r="S16">
-        <v>0.003490125678688448</v>
+        <v>0.03833856757178223</v>
       </c>
       <c r="T16">
-        <v>0.003490125678688447</v>
+        <v>0.03833856757178223</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H17">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I17">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J17">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.05108466666666667</v>
+        <v>0.303814</v>
       </c>
       <c r="N17">
-        <v>0.153254</v>
+        <v>0.911442</v>
       </c>
       <c r="O17">
-        <v>0.0004048871544489625</v>
+        <v>0.006163693584599369</v>
       </c>
       <c r="P17">
-        <v>0.0004048871544489624</v>
+        <v>0.006163693584599369</v>
       </c>
       <c r="Q17">
-        <v>0.07247087071755556</v>
+        <v>0.01308445880933333</v>
       </c>
       <c r="R17">
-        <v>0.6522378364579999</v>
+        <v>0.117760129284</v>
       </c>
       <c r="S17">
-        <v>4.704445501043611E-05</v>
+        <v>1.869508525378601E-05</v>
       </c>
       <c r="T17">
-        <v>4.70444550104361E-05</v>
+        <v>1.869508525378601E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H18">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I18">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J18">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.303814</v>
+        <v>27.313027</v>
       </c>
       <c r="N18">
-        <v>0.9114420000000001</v>
+        <v>81.939081</v>
       </c>
       <c r="O18">
-        <v>0.002407970805494612</v>
+        <v>0.5541190639532391</v>
       </c>
       <c r="P18">
-        <v>0.002407970805494612</v>
+        <v>0.554119063953239</v>
       </c>
       <c r="Q18">
-        <v>0.4310034018593334</v>
+        <v>1.176299238151334</v>
       </c>
       <c r="R18">
-        <v>3.879030616734</v>
+        <v>10.586693143362</v>
       </c>
       <c r="S18">
-        <v>0.0002797857945869074</v>
+        <v>0.001680697296056006</v>
       </c>
       <c r="T18">
-        <v>0.0002797857945869074</v>
+        <v>0.001680697296056006</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H19">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I19">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J19">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>45.38881466666666</v>
+        <v>0.03735666666666667</v>
       </c>
       <c r="N19">
-        <v>136.166444</v>
+        <v>0.11207</v>
       </c>
       <c r="O19">
-        <v>0.359742936840761</v>
+        <v>0.0007578816205815086</v>
       </c>
       <c r="P19">
-        <v>0.359742936840761</v>
+        <v>0.0007578816205815086</v>
       </c>
       <c r="Q19">
-        <v>64.39049394595422</v>
+        <v>0.001608852015555556</v>
       </c>
       <c r="R19">
-        <v>579.5144455135879</v>
+        <v>0.01447966814</v>
       </c>
       <c r="S19">
-        <v>0.04179907962395153</v>
+        <v>2.298729051757324E-06</v>
       </c>
       <c r="T19">
-        <v>0.04179907962395152</v>
+        <v>2.298729051757324E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H20">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I20">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J20">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.217960333333333</v>
+        <v>3.620358333333333</v>
       </c>
       <c r="N20">
-        <v>12.653881</v>
+        <v>10.861075</v>
       </c>
       <c r="O20">
-        <v>0.03343073505961209</v>
+        <v>0.07344881879412249</v>
       </c>
       <c r="P20">
-        <v>0.03343073505961209</v>
+        <v>0.07344881879412249</v>
       </c>
       <c r="Q20">
-        <v>5.983777089187444</v>
+        <v>0.1559191791277778</v>
       </c>
       <c r="R20">
-        <v>53.853993802687</v>
+        <v>1.40327261215</v>
       </c>
       <c r="S20">
-        <v>0.003884368012658151</v>
+        <v>0.0002227774483431353</v>
       </c>
       <c r="T20">
-        <v>0.003884368012658151</v>
+        <v>0.0002227774483431353</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H21">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I21">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J21">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,338 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>76.20846066666667</v>
+        <v>18.01634333333334</v>
       </c>
       <c r="N21">
-        <v>228.625382</v>
+        <v>54.04903</v>
       </c>
       <c r="O21">
-        <v>0.6040134701396834</v>
+        <v>0.3655105420474576</v>
       </c>
       <c r="P21">
-        <v>0.6040134701396833</v>
+        <v>0.3655105420474576</v>
       </c>
       <c r="Q21">
-        <v>108.1125484599016</v>
+        <v>0.7759158637844447</v>
       </c>
       <c r="R21">
-        <v>973.012936139114</v>
+        <v>6.983242774060001</v>
       </c>
       <c r="S21">
-        <v>0.07018124484674312</v>
+        <v>0.001108629209246928</v>
       </c>
       <c r="T21">
-        <v>0.07018124484674311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.090335</v>
-      </c>
-      <c r="H22">
-        <v>0.271005</v>
-      </c>
-      <c r="I22">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J22">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.05108466666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.153254</v>
-      </c>
-      <c r="O22">
-        <v>0.0004048871544489625</v>
-      </c>
-      <c r="P22">
-        <v>0.0004048871544489624</v>
-      </c>
-      <c r="Q22">
-        <v>0.004614733363333333</v>
-      </c>
-      <c r="R22">
-        <v>0.04153260027</v>
-      </c>
-      <c r="S22">
-        <v>2.995653480452846E-06</v>
-      </c>
-      <c r="T22">
-        <v>2.995653480452845E-06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.090335</v>
-      </c>
-      <c r="H23">
-        <v>0.271005</v>
-      </c>
-      <c r="I23">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J23">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>0.303814</v>
-      </c>
-      <c r="N23">
-        <v>0.9114420000000001</v>
-      </c>
-      <c r="O23">
-        <v>0.002407970805494612</v>
-      </c>
-      <c r="P23">
-        <v>0.002407970805494612</v>
-      </c>
-      <c r="Q23">
-        <v>0.02744503769</v>
-      </c>
-      <c r="R23">
-        <v>0.24700533921</v>
-      </c>
-      <c r="S23">
-        <v>1.781594215831823E-05</v>
-      </c>
-      <c r="T23">
-        <v>1.781594215831823E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.090335</v>
-      </c>
-      <c r="H24">
-        <v>0.271005</v>
-      </c>
-      <c r="I24">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J24">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>45.38881466666666</v>
-      </c>
-      <c r="N24">
-        <v>136.166444</v>
-      </c>
-      <c r="O24">
-        <v>0.359742936840761</v>
-      </c>
-      <c r="P24">
-        <v>0.359742936840761</v>
-      </c>
-      <c r="Q24">
-        <v>4.100198572913333</v>
-      </c>
-      <c r="R24">
-        <v>36.90178715622</v>
-      </c>
-      <c r="S24">
-        <v>0.002661643297333103</v>
-      </c>
-      <c r="T24">
-        <v>0.002661643297333103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.090335</v>
-      </c>
-      <c r="H25">
-        <v>0.271005</v>
-      </c>
-      <c r="I25">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J25">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.217960333333333</v>
-      </c>
-      <c r="N25">
-        <v>12.653881</v>
-      </c>
-      <c r="O25">
-        <v>0.03343073505961209</v>
-      </c>
-      <c r="P25">
-        <v>0.03343073505961209</v>
-      </c>
-      <c r="Q25">
-        <v>0.3810294467116667</v>
-      </c>
-      <c r="R25">
-        <v>3.429265020405</v>
-      </c>
-      <c r="S25">
-        <v>0.0002473452089921707</v>
-      </c>
-      <c r="T25">
-        <v>0.0002473452089921707</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.090335</v>
-      </c>
-      <c r="H26">
-        <v>0.271005</v>
-      </c>
-      <c r="I26">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J26">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>76.20846066666667</v>
-      </c>
-      <c r="N26">
-        <v>228.625382</v>
-      </c>
-      <c r="O26">
-        <v>0.6040134701396834</v>
-      </c>
-      <c r="P26">
-        <v>0.6040134701396833</v>
-      </c>
-      <c r="Q26">
-        <v>6.884291294323333</v>
-      </c>
-      <c r="R26">
-        <v>61.95862164891</v>
-      </c>
-      <c r="S26">
-        <v>0.00446893667576808</v>
-      </c>
-      <c r="T26">
-        <v>0.004468936675768079</v>
+        <v>0.001108629209246927</v>
       </c>
     </row>
   </sheetData>
